--- a/Reponedores WM.xlsx
+++ b/Reponedores WM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Supermercados\WALMART\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F085CC-B1A8-4EC7-B432-379110FB8FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9F0E1-A2D6-433E-8A72-601951BA170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
   </bookViews>
@@ -267,10 +267,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{66886B52-31B2-4832-BDE6-CA3BFA83CB74}" name="Cod_Local"/>
     <tableColumn id="2" xr3:uid="{D5E3610E-F23D-4A16-992A-161CA3638F70}" name="LOCAL"/>
-    <tableColumn id="3" xr3:uid="{13D164DC-949D-497C-9DFE-6FDC5903CC2A}" name="id_Reponedor"/>
-    <tableColumn id="4" xr3:uid="{277B4B84-8997-413E-AF5E-0F0A87ADAED8}" name="reponedor"/>
-    <tableColumn id="5" xr3:uid="{A3DB0AA1-BFD6-42BE-BBAA-1FC598E2205B}" name="id_dia"/>
-    <tableColumn id="6" xr3:uid="{7576A15B-6484-49FA-AC4C-3380B7D34233}" name="Dia_Visita"/>
+    <tableColumn id="3" xr3:uid="{13D164DC-949D-497C-9DFE-6FDC5903CC2A}" name="id_dia"/>
+    <tableColumn id="4" xr3:uid="{277B4B84-8997-413E-AF5E-0F0A87ADAED8}" name="Dia_Visita"/>
+    <tableColumn id="5" xr3:uid="{A3DB0AA1-BFD6-42BE-BBAA-1FC598E2205B}" name="id_Reponedor"/>
+    <tableColumn id="6" xr3:uid="{7576A15B-6484-49FA-AC4C-3380B7D34233}" name="reponedor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,7 +576,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,16 +595,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reponedores WM.xlsx
+++ b/Reponedores WM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9F0E1-A2D6-433E-8A72-601951BA170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B81DB91-C116-41EF-ADD1-CFE7644B8E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
   <si>
     <t>LOCAL</t>
   </si>
@@ -197,6 +197,42 @@
   </si>
   <si>
     <t>HIPER PRINCIPE DE GALEZ</t>
+  </si>
+  <si>
+    <t>HIPER PTO. MONTT</t>
+  </si>
+  <si>
+    <t>HIPER CARDONAL PTO. MONTT</t>
+  </si>
+  <si>
+    <t>EXPRESS PTO. MONTT BALMACEDA</t>
+  </si>
+  <si>
+    <t>EXPRESS PTO. MONTT</t>
+  </si>
+  <si>
+    <t>EXPRESS PTO. VARAS 2</t>
+  </si>
+  <si>
+    <t>EXPRESS PTO. VARAS</t>
+  </si>
+  <si>
+    <t>Reponedor Pto. Montt</t>
+  </si>
+  <si>
+    <t>Reponedor Temuco</t>
+  </si>
+  <si>
+    <t>EXPRESS TEMUCO CAUPOLICAN</t>
+  </si>
+  <si>
+    <t>HIPER TEMUCO BARROS ARANA</t>
+  </si>
+  <si>
+    <t>HIPER TEMUCO PRIETO NORTE</t>
+  </si>
+  <si>
+    <t>HIPER TEMUCO BARRIO INGLES</t>
   </si>
 </sst>
 </file>
@@ -226,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,13 +270,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F46" totalsRowShown="0">
-  <autoFilter ref="A1:F46" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F65" totalsRowShown="0">
+  <autoFilter ref="A1:F65" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition ref="A1:A47"/>
   </sortState>
@@ -573,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70310430-3508-4585-9785-354FAA0A59A9}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,6 +1595,386 @@
         <v>41</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>99</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>99</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>99</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>670</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="3">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>195</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="3">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>619</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>658</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="3">
+        <v>7</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>129</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>687</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="4">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>687</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="4">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>96</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="4">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>96</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="4">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>96</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="4">
+        <v>8</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>120</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="7">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>120</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="6">
+        <v>4</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="7">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>120</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="6">
+        <v>6</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="7">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>456</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="8">
+        <v>2</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="7">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>456</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="8">
+        <v>4</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="7">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>456</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="9">
+        <v>6</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="7">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reponedores WM.xlsx
+++ b/Reponedores WM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B81DB91-C116-41EF-ADD1-CFE7644B8E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC52F48-97F8-4137-BF8C-75CC19EDEC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
   <si>
     <t>LOCAL</t>
   </si>
@@ -233,13 +233,46 @@
   </si>
   <si>
     <t>HIPER TEMUCO BARRIO INGLES</t>
+  </si>
+  <si>
+    <t>Reponedor Chillán</t>
+  </si>
+  <si>
+    <t>HIPER CHILLAN</t>
+  </si>
+  <si>
+    <t>EXPRESS CHILLAN</t>
+  </si>
+  <si>
+    <t>HIPER LOS ANGELES</t>
+  </si>
+  <si>
+    <t>Reponedor Los Angeles</t>
+  </si>
+  <si>
+    <t>HIPER LOS ANGELES VICENTA</t>
+  </si>
+  <si>
+    <t>Reponedor Concepción</t>
+  </si>
+  <si>
+    <t>HIPER BIO BIO</t>
+  </si>
+  <si>
+    <t>HIPER COLLAO</t>
+  </si>
+  <si>
+    <t>HIPER CHIGUAYANTE MANUEL ROD</t>
+  </si>
+  <si>
+    <t>HIPER CONCEPCION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +282,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -329,6 +369,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,8 +394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F65" totalsRowShown="0">
-  <autoFilter ref="A1:F65" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F83" totalsRowShown="0">
+  <autoFilter ref="A1:F83" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition ref="A1:A47"/>
   </sortState>
@@ -661,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70310430-3508-4585-9785-354FAA0A59A9}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1975,6 +2022,366 @@
         <v>61</v>
       </c>
     </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>608</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>608</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="3">
+        <v>9</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>608</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="3">
+        <v>9</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>608</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="3">
+        <v>9</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>608</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="6">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="3">
+        <v>9</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>612</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="3">
+        <v>9</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="11">
+        <v>612</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="8">
+        <v>4</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>612</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="3">
+        <v>9</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>36</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="12">
+        <v>1</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="10">
+        <v>10</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>36</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="12">
+        <v>3</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="10">
+        <v>10</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>36</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="6">
+        <v>6</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="10">
+        <v>10</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>426</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="14">
+        <v>1</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="13">
+        <v>10</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>426</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="14">
+        <v>3</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="13">
+        <v>10</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>426</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="14">
+        <v>5</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="13">
+        <v>10</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>89</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>631</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="14">
+        <v>1</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="12">
+        <v>11</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>945</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="14">
+        <v>1</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="12">
+        <v>11</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>98</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="12">
+        <v>11</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reponedores WM.xlsx
+++ b/Reponedores WM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC52F48-97F8-4137-BF8C-75CC19EDEC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49004EE-E77B-4C74-AEEA-DB6B91079967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="82">
   <si>
     <t>LOCAL</t>
   </si>
@@ -266,6 +266,21 @@
   </si>
   <si>
     <t>HIPER CONCEPCION</t>
+  </si>
+  <si>
+    <t>Reponedor Chicureo</t>
+  </si>
+  <si>
+    <t>EXPRESS PEDRO FONTOVA</t>
+  </si>
+  <si>
+    <t>HIPER MALL PLAZA NORTE</t>
+  </si>
+  <si>
+    <t>EXPRESS PIEDRA ROJA</t>
+  </si>
+  <si>
+    <t>EXPRESS COLINA, EL ALGARROBAL</t>
   </si>
 </sst>
 </file>
@@ -358,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -376,6 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,8 +410,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F83" totalsRowShown="0">
-  <autoFilter ref="A1:F83" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F92" totalsRowShown="0">
+  <autoFilter ref="A1:F92" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition ref="A1:A47"/>
   </sortState>
@@ -708,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70310430-3508-4585-9785-354FAA0A59A9}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2382,6 +2398,186 @@
         <v>72</v>
       </c>
     </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="12">
+        <v>674</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="8">
+        <v>2</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="12">
+        <v>12</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <v>674</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="8">
+        <v>4</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="12">
+        <v>12</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
+        <v>41</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="12">
+        <v>12</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>41</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="8">
+        <v>4</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="12">
+        <v>12</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <v>139</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="14">
+        <v>1</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="12">
+        <v>12</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <v>139</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="14">
+        <v>3</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="12">
+        <v>12</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
+        <v>139</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="14">
+        <v>5</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="12">
+        <v>12</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>253</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="14">
+        <v>3</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="12">
+        <v>12</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>253</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="14">
+        <v>5</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="12">
+        <v>12</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reponedores WM.xlsx
+++ b/Reponedores WM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49004EE-E77B-4C74-AEEA-DB6B91079967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA7CFA-986F-4D42-997E-218CBE2A063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
   <si>
     <t>LOCAL</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>EXPRESS PEDRO FONTOVA</t>
-  </si>
-  <si>
-    <t>HIPER MALL PLAZA NORTE</t>
   </si>
   <si>
     <t>EXPRESS PIEDRA ROJA</t>
@@ -410,8 +407,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F92" totalsRowShown="0">
-  <autoFilter ref="A1:F92" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F90" totalsRowShown="0">
+  <autoFilter ref="A1:F90" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition ref="A1:A47"/>
   </sortState>
@@ -724,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70310430-3508-4585-9785-354FAA0A59A9}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2440,16 +2437,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="8">
-        <v>2</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>43</v>
+      <c r="C86" s="14">
+        <v>1</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="E86" s="12">
         <v>12</v>
@@ -2460,16 +2457,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="8">
-        <v>4</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>47</v>
+      <c r="C87" s="14">
+        <v>3</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="E87" s="12">
         <v>12</v>
@@ -2483,13 +2480,13 @@
         <v>139</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E88" s="12">
         <v>12</v>
@@ -2499,10 +2496,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="12">
-        <v>139</v>
-      </c>
-      <c r="B89" s="12" t="s">
+      <c r="A89" s="5">
+        <v>253</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C89" s="14">
@@ -2519,10 +2516,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="12">
-        <v>139</v>
-      </c>
-      <c r="B90" s="12" t="s">
+      <c r="A90" s="5">
+        <v>253</v>
+      </c>
+      <c r="B90" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C90" s="14">
@@ -2535,46 +2532,6 @@
         <v>12</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
-        <v>253</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="14">
-        <v>3</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E91" s="12">
-        <v>12</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
-        <v>253</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="14">
-        <v>5</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E92" s="12">
-        <v>12</v>
-      </c>
-      <c r="F92" s="12" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Reponedores WM.xlsx
+++ b/Reponedores WM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA7CFA-986F-4D42-997E-218CBE2A063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F4F27C-1D23-4185-8A99-64B98E245259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="83">
   <si>
     <t>LOCAL</t>
   </si>
@@ -278,13 +278,19 @@
   </si>
   <si>
     <t>EXPRESS COLINA, EL ALGARROBAL</t>
+  </si>
+  <si>
+    <t>HIPER IQUIQUE</t>
+  </si>
+  <si>
+    <t>Claudia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +310,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -389,6 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,8 +419,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F90" totalsRowShown="0">
-  <autoFilter ref="A1:F90" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F96" totalsRowShown="0">
+  <autoFilter ref="A1:F96" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition ref="A1:A47"/>
   </sortState>
@@ -721,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70310430-3508-4585-9785-354FAA0A59A9}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,6 +2547,126 @@
         <v>77</v>
       </c>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="16">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="14">
+        <v>1</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="16">
+        <v>78</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="9">
+        <v>2</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="12">
+        <v>13</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="16">
+        <v>78</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="14">
+        <v>3</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="12">
+        <v>13</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="16">
+        <v>78</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="8">
+        <v>4</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" s="12">
+        <v>13</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="16">
+        <v>78</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="12">
+        <v>5</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="12">
+        <v>13</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="16">
+        <v>78</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="6">
+        <v>6</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="12">
+        <v>13</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reponedores WM.xlsx
+++ b/Reponedores WM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F4F27C-1D23-4185-8A99-64B98E245259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A7EF4-10A0-4A71-B955-56D8047E3AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="87">
   <si>
     <t>LOCAL</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>Claudia</t>
+  </si>
+  <si>
+    <t>HIPER LA SERENA</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>HIPER CUATRO ESQUINAS</t>
+  </si>
+  <si>
+    <t>HIPER REGIMIENTO ARICA</t>
   </si>
 </sst>
 </file>
@@ -419,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F96" totalsRowShown="0">
-  <autoFilter ref="A1:F96" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F107" totalsRowShown="0">
+  <autoFilter ref="A1:F107" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition ref="A1:A47"/>
   </sortState>
@@ -733,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70310430-3508-4585-9785-354FAA0A59A9}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2667,6 +2679,226 @@
         <v>82</v>
       </c>
     </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
+        <v>92</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="14">
+        <v>1</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="12">
+        <v>92</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="9">
+        <v>2</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="12">
+        <v>14</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <v>92</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="14">
+        <v>3</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" s="12">
+        <v>14</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
+        <v>92</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="8">
+        <v>4</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="12">
+        <v>14</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <v>92</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="12">
+        <v>5</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="12">
+        <v>14</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="12">
+        <v>684</v>
+      </c>
+      <c r="B102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="14">
+        <v>1</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="12">
+        <v>14</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <v>684</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="14">
+        <v>3</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" s="12">
+        <v>14</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <v>684</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="12">
+        <v>5</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="12">
+        <v>14</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
+        <v>686</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="9">
+        <v>2</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="12">
+        <v>14</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="12">
+        <v>686</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" s="9">
+        <v>4</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="12">
+        <v>14</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="12">
+        <v>686</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="6">
+        <v>6</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="12">
+        <v>14</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reponedores WM.xlsx
+++ b/Reponedores WM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A7EF4-10A0-4A71-B955-56D8047E3AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A5A05F-6F57-40C2-B350-0FCD6F45EA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{24E0719F-8CCC-43D8-955F-EAA548208BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="89">
   <si>
     <t>LOCAL</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>HIPER REGIMIENTO ARICA</t>
+  </si>
+  <si>
+    <t>HIPER IQUIQUE (SUR)</t>
+  </si>
+  <si>
+    <t>Leila</t>
   </si>
 </sst>
 </file>
@@ -431,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F107" totalsRowShown="0">
-  <autoFilter ref="A1:F107" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}" name="Tabla1" displayName="Tabla1" ref="A1:F113" totalsRowShown="0">
+  <autoFilter ref="A1:F113" xr:uid="{238B3A51-9523-4E8E-B370-99773FFED535}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition ref="A1:A47"/>
   </sortState>
@@ -745,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70310430-3508-4585-9785-354FAA0A59A9}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2899,6 +2905,126 @@
         <v>84</v>
       </c>
     </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="12">
+        <v>679</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="14">
+        <v>1</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="12">
+        <v>679</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="9">
+        <v>2</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="12">
+        <v>15</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="12">
+        <v>679</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="14">
+        <v>3</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="12">
+        <v>15</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="12">
+        <v>679</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="8">
+        <v>4</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" s="12">
+        <v>15</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="12">
+        <v>679</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="12">
+        <v>5</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="12">
+        <v>15</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="12">
+        <v>679</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="6">
+        <v>6</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="12">
+        <v>15</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
